--- a/Paper_Code/Cir_Sym/Results/Cirsym_Full_Results_d1000_n900_terr.xlsx
+++ b/Paper_Code/Cir_Sym/Results/Cirsym_Full_Results_d1000_n900_terr.xlsx
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,22 +465,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -497,16 +512,25 @@
         <v>0.08810089192940451</v>
       </c>
       <c r="D2" t="n">
+        <v>0.002785994823892645</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.956</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.2050950998927083</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0.006485676526007137</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.5159157447098196</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.2361618341215381</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.007468092922269304</v>
       </c>
     </row>
     <row r="3">
@@ -522,16 +546,25 @@
         <v>0.08814483879628468</v>
       </c>
       <c r="D3" t="n">
+        <v>0.002787384545846341</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.956</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.2050950998927083</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0.006485676526007137</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.5163425225700505</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.2365404754519792</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.007480066612474007</v>
       </c>
     </row>
     <row r="4">
@@ -547,16 +580,25 @@
         <v>0.08638618796682708</v>
       </c>
       <c r="D4" t="n">
+        <v>0.002731771123546038</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.946</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.2260176984220484</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0.007147307185227175</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.5166359287300263</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.235499718635325</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.007447154992164274</v>
       </c>
     </row>
     <row r="5">
@@ -572,16 +614,25 @@
         <v>0.09137097781993085</v>
       </c>
       <c r="D5" t="n">
+        <v>0.002889404019477078</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.96</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.1959591794226543</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0.006196773353931868</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.5315323902968687</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.2388896760143742</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.007554354857051174</v>
       </c>
     </row>
     <row r="6">
@@ -597,16 +648,25 @@
         <v>0.09361037348381107</v>
       </c>
       <c r="D6" t="n">
+        <v>0.002960219928278742</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.955</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.2073041244162788</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0.006555532015023648</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.439889748808964</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.2386631672455762</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.007547192020857153</v>
       </c>
     </row>
     <row r="7">
@@ -622,16 +682,25 @@
         <v>5.928908367839944</v>
       </c>
       <c r="D7" t="n">
+        <v>0.1874885448080562</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.949</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.2199977272609878</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.006956938982052379</v>
+      </c>
+      <c r="H7" t="n">
         <v>3.35316788792592</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>77.62841134288777</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.454825909839756</v>
       </c>
     </row>
     <row r="8">
@@ -647,16 +716,25 @@
         <v>4.376720015798907</v>
       </c>
       <c r="D8" t="n">
+        <v>0.1384040393077268</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.9389999999999999</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.239330315672712</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.007568289106528635</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.9067885699840253</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>1.993731544358731</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.06304732723098617</v>
       </c>
     </row>
     <row r="9">
@@ -672,16 +750,25 @@
         <v>0.3193028023231959</v>
       </c>
       <c r="D9" t="n">
+        <v>0.01009724118615802</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.948</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.2220270253820467</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.007021111023192841</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.8577724788277699</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.5020579400358682</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.01587646607885582</v>
       </c>
     </row>
     <row r="10">
@@ -697,16 +784,25 @@
         <v>0.4542567453130419</v>
       </c>
       <c r="D10" t="n">
+        <v>0.0143648595768423</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.945</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.22798026230356</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.007209368904418751</v>
+      </c>
+      <c r="H10" t="n">
         <v>1.143829729212004</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>9.404219494980481</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.2973875322029673</v>
       </c>
     </row>
     <row r="11">
@@ -722,16 +818,25 @@
         <v>2.693995198441227</v>
       </c>
       <c r="D11" t="n">
+        <v>0.08519160832631571</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.923</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.266591447724791</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.008430361795320531</v>
+      </c>
+      <c r="H11" t="n">
         <v>1.629333588501101</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>7.371843188725854</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.233118150299722</v>
       </c>
     </row>
     <row r="12">
@@ -747,16 +852,25 @@
         <v>0.1189928412006583</v>
       </c>
       <c r="D12" t="n">
+        <v>0.003762884034488053</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.947</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.2240334796408786</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.00708456067798138</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.4759744414947353</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.2118034470930838</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.006697813090891142</v>
       </c>
     </row>
     <row r="13">
@@ -772,16 +886,25 @@
         <v>0.1166087632827582</v>
       </c>
       <c r="D13" t="n">
+        <v>0.003687492871089291</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.9389999999999999</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.239330315672712</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.007568289106528635</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.4708437522974822</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.2097088493632632</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.006631576094810631</v>
       </c>
     </row>
     <row r="14">
@@ -797,16 +920,25 @@
         <v>0.1194865666036808</v>
       </c>
       <c r="D14" t="n">
+        <v>0.003778497002610409</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.957</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.2028570925553257</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.006414904519944159</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.4767776641218855</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.1925501792868255</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.006088971304201446</v>
       </c>
     </row>
     <row r="15">
@@ -822,16 +954,25 @@
         <v>0.1216992529165361</v>
       </c>
       <c r="D15" t="n">
+        <v>0.003778497002610409</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.916</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.2773878151613729</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.008771772910877253</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.4590405824119327</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.1893088725194839</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.005986472184400274</v>
       </c>
     </row>
     <row r="16">
@@ -847,16 +988,25 @@
         <v>0.1238676440498286</v>
       </c>
       <c r="D16" t="n">
+        <v>0.003917038835964616</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.949</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.2199977272609878</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.00695693898205238</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.4021567805539003</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.1632660945967553</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.005162927236062567</v>
       </c>
     </row>
     <row r="17">
@@ -872,16 +1022,25 @@
         <v>0.1316649673340325</v>
       </c>
       <c r="D17" t="n">
+        <v>0.004163611848272104</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.871</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.3351999403341235</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.01059995283008373</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.4542984725044102</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.3104652221247011</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.009817772361841559</v>
       </c>
     </row>
     <row r="18">
@@ -897,16 +1056,25 @@
         <v>0.177476815683866</v>
       </c>
       <c r="D18" t="n">
+        <v>0.005612309694349104</v>
+      </c>
+      <c r="E18" t="n">
         <v>0.867</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>0.339574734042449</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
+        <v>0.01073829595420055</v>
+      </c>
+      <c r="H18" t="n">
         <v>0.4707798928361852</v>
       </c>
-      <c r="G18" t="n">
+      <c r="I18" t="n">
         <v>0.5111096157527585</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.01616270519792192</v>
       </c>
     </row>
     <row r="19">
@@ -922,16 +1090,25 @@
         <v>0.134881328521088</v>
       </c>
       <c r="D19" t="n">
+        <v>0.004265322119560685</v>
+      </c>
+      <c r="E19" t="n">
         <v>0.925</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>0.2633913438213185</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
+        <v>0.008329165624478841</v>
+      </c>
+      <c r="H19" t="n">
         <v>0.4902437782661107</v>
       </c>
-      <c r="G19" t="n">
+      <c r="I19" t="n">
         <v>0.3359903558900594</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.01062494796463158</v>
       </c>
     </row>
     <row r="20">
@@ -947,16 +1124,25 @@
         <v>0.1524240388690346</v>
       </c>
       <c r="D20" t="n">
+        <v>0.004820071329881848</v>
+      </c>
+      <c r="E20" t="n">
         <v>0.918</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>0.2743647207641682</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
+        <v>0.008676174272108645</v>
+      </c>
+      <c r="H20" t="n">
         <v>0.5007663610444125</v>
       </c>
-      <c r="G20" t="n">
+      <c r="I20" t="n">
         <v>0.5555175000264102</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.01756700580166104</v>
       </c>
     </row>
     <row r="21">
@@ -972,16 +1158,25 @@
         <v>0.09837355425393185</v>
       </c>
       <c r="D21" t="n">
+        <v>0.003110844929685708</v>
+      </c>
+      <c r="E21" t="n">
         <v>0.93</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>0.2551470164434614</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
+        <v>0.008068457101577723</v>
+      </c>
+      <c r="H21" t="n">
         <v>0.5017676708418629</v>
       </c>
-      <c r="G21" t="n">
+      <c r="I21" t="n">
         <v>0.3885918459585225</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.01228835313398228</v>
       </c>
     </row>
     <row r="22">
@@ -997,16 +1192,25 @@
         <v>0.1037851913585715</v>
       </c>
       <c r="D22" t="n">
+        <v>0.003281975920895111</v>
+      </c>
+      <c r="E22" t="n">
         <v>0.9379999999999999</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>0.2411555514600482</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
+        <v>0.007626008130076966</v>
+      </c>
+      <c r="H22" t="n">
         <v>0.5268280150923553</v>
       </c>
-      <c r="G22" t="n">
+      <c r="I22" t="n">
         <v>0.679215023797108</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.02147866496204329</v>
       </c>
     </row>
   </sheetData>
@@ -1020,7 +1224,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1046,22 +1250,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -1078,16 +1297,25 @@
         <v>0.1260898949665865</v>
       </c>
       <c r="D2" t="n">
+        <v>0.003987312580258139</v>
+      </c>
+      <c r="E2" t="n">
         <v>1</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
         <v>1.565978861992664</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.7130887791944028</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.02254984716163203</v>
       </c>
     </row>
     <row r="3">
@@ -1103,16 +1331,25 @@
         <v>0.1264098094746038</v>
       </c>
       <c r="D3" t="n">
+        <v>0.003997429165276806</v>
+      </c>
+      <c r="E3" t="n">
         <v>1</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>1.656758872104094</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.754834332756402</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.02386995747603675</v>
       </c>
     </row>
     <row r="4">
@@ -1128,16 +1365,25 @@
         <v>0.121601123224755</v>
       </c>
       <c r="D4" t="n">
+        <v>0.003845365154250249</v>
+      </c>
+      <c r="E4" t="n">
         <v>1</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>1.573130400301829</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.7100421723987084</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.02245350499553861</v>
       </c>
     </row>
     <row r="5">
@@ -1153,16 +1399,25 @@
         <v>0.1191076195923333</v>
       </c>
       <c r="D5" t="n">
+        <v>0.003766513645926693</v>
+      </c>
+      <c r="E5" t="n">
         <v>1</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>1.788959732528403</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.8289884377257832</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0262149161715813</v>
       </c>
     </row>
     <row r="6">
@@ -1178,16 +1433,25 @@
         <v>0.1266851944558126</v>
       </c>
       <c r="D6" t="n">
+        <v>0.004006137603017031</v>
+      </c>
+      <c r="E6" t="n">
         <v>1</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>1.357583444346429</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.7376221794332646</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.02332566139666524</v>
       </c>
     </row>
     <row r="7">
@@ -1203,16 +1467,25 @@
         <v>0.1974380794161819</v>
       </c>
       <c r="D7" t="n">
+        <v>0.006243540278043424</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.949</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.2199977272609878</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.006956938982052379</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.5142424350762309</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.2228997213928669</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.007048708094184188</v>
       </c>
     </row>
     <row r="8">
@@ -1228,16 +1501,25 @@
         <v>0.191634489104693</v>
       </c>
       <c r="D8" t="n">
+        <v>0.006060014638135514</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.9320000000000001</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.251745903640953</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.007960904471226871</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.5092326418118694</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.2228999797666911</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.007048716264681909</v>
       </c>
     </row>
     <row r="9">
@@ -1253,16 +1535,25 @@
         <v>0.1886412917305606</v>
       </c>
       <c r="D9" t="n">
+        <v>0.005965361426248579</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.944</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.2299217258111987</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.00727076337120113</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.5157089861550228</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.2088739026468106</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.006605172761321941</v>
       </c>
     </row>
     <row r="10">
@@ -1278,16 +1569,25 @@
         <v>0.1960623665368182</v>
       </c>
       <c r="D10" t="n">
+        <v>0.005965361426248579</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.883</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.3214202856074893</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.01016420188701503</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.4975499066472692</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.2062633511342741</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.006522619874033813</v>
       </c>
     </row>
     <row r="11">
@@ -1303,16 +1603,25 @@
         <v>0.2396422140706352</v>
       </c>
       <c r="D11" t="n">
+        <v>0.007578152199888581</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.9429999999999999</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.2318426190328259</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.007331507348424336</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.43500612380491</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.1742220123615659</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.005509383776005591</v>
       </c>
     </row>
     <row r="12">
@@ -1328,16 +1637,25 @@
         <v>0.1408984351214045</v>
       </c>
       <c r="D12" t="n">
+        <v>0.004455599737371012</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.775</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.4175823272122517</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.01320511264624426</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.4859931622725747</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.3327946032124913</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.01052388939163461</v>
       </c>
     </row>
     <row r="13">
@@ -1353,16 +1671,25 @@
         <v>0.1846006930700676</v>
       </c>
       <c r="D13" t="n">
+        <v>0.005837586477470747</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.774</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.4182391660282428</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.01322588371338566</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.5048117969775453</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.5473548683549342</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.01730888072383212</v>
       </c>
     </row>
     <row r="14">
@@ -1378,16 +1705,25 @@
         <v>0.1262187491401391</v>
       </c>
       <c r="D14" t="n">
+        <v>0.003991387307002587</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.864</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.3427885645700567</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.01083992619901076</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.5215164322829898</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.3677943677817093</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.01163067912771852</v>
       </c>
     </row>
     <row r="15">
@@ -1403,16 +1739,25 @@
         <v>0.1714240297920892</v>
       </c>
       <c r="D15" t="n">
+        <v>0.005420903798275623</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.854</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.3531062163145815</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.01116619899518184</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.5327549206045347</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.5965128865733479</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.01886339375213452</v>
       </c>
     </row>
     <row r="16">
@@ -1428,16 +1773,25 @@
         <v>0.1217442285695274</v>
       </c>
       <c r="D16" t="n">
+        <v>0.003849890542598496</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.915</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.2788816953476868</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.008819013550278738</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.5504273642310897</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.3735649261163772</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.01181316020480271</v>
       </c>
     </row>
     <row r="17">
@@ -1453,16 +1807,25 @@
         <v>0.1646731425973033</v>
       </c>
       <c r="D17" t="n">
+        <v>0.005207422000651742</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.908</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.289025950392002</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.009139803061335623</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.5765386554344252</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.6150655817216925</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.01945008148616977</v>
       </c>
     </row>
   </sheetData>
@@ -1476,7 +1839,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1502,22 +1865,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -1534,16 +1912,25 @@
         <v>0.2234201196789505</v>
       </c>
       <c r="D2" t="n">
+        <v>0.00706516453292891</v>
+      </c>
+      <c r="E2" t="n">
         <v>1</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
         <v>4.57932117978917</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.5325690364680643</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.01684131166520359</v>
       </c>
     </row>
     <row r="3">
@@ -1559,16 +1946,25 @@
         <v>0.2236850761388822</v>
       </c>
       <c r="D3" t="n">
+        <v>0.007073543191870504</v>
+      </c>
+      <c r="E3" t="n">
         <v>1</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>4.751684666286979</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.568018237641062</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.01796231383460544</v>
       </c>
     </row>
     <row r="4">
@@ -1584,16 +1980,25 @@
         <v>0.2192224667622056</v>
       </c>
       <c r="D4" t="n">
+        <v>0.006932423092491278</v>
+      </c>
+      <c r="E4" t="n">
         <v>1</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>4.619467244754134</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.5153087715694278</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.01629549416422812</v>
       </c>
     </row>
     <row r="5">
@@ -1609,16 +2014,25 @@
         <v>0.1969391034116333</v>
       </c>
       <c r="D5" t="n">
+        <v>0.006227761271321981</v>
+      </c>
+      <c r="E5" t="n">
         <v>1</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>5.04268018891758</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.6241483505100548</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0197373038544889</v>
       </c>
     </row>
     <row r="6">
@@ -1634,16 +2048,25 @@
         <v>0.2144231059119566</v>
       </c>
       <c r="D6" t="n">
+        <v>0.006780653976492988</v>
+      </c>
+      <c r="E6" t="n">
         <v>1</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>4.106485671244029</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.5930490223791594</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.01875385674854313</v>
       </c>
     </row>
     <row r="7">
@@ -1659,16 +2082,25 @@
         <v>0.3775432892301863</v>
       </c>
       <c r="D7" t="n">
+        <v>0.01193896709279107</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.122</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.3272858078194042</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.01034968598557463</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.9971117728765181</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.1400201787812361</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.004427826833326854</v>
       </c>
     </row>
     <row r="8">
@@ -1684,16 +2116,25 @@
         <v>0.3448866703038539</v>
       </c>
       <c r="D8" t="n">
+        <v>0.01090627412791735</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.122</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.3272858078194042</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.01034968598557463</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.9119983019262388</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.1514764205866035</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.004790105008632859</v>
       </c>
     </row>
     <row r="9">
@@ -1709,16 +2150,25 @@
         <v>0.3684356167163547</v>
       </c>
       <c r="D9" t="n">
+        <v>0.01165095719952488</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.1</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.3</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.009486832980505138</v>
+      </c>
+      <c r="H9" t="n">
         <v>1.013784954319448</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.1486200273460462</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.004699777923300156</v>
       </c>
     </row>
     <row r="10">
@@ -1734,16 +2184,25 @@
         <v>0.3298980642301838</v>
       </c>
       <c r="D10" t="n">
+        <v>0.01165095719952488</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.082</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.2743647207641682</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.008676174272108645</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.8907520245365004</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.1578285010361967</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.004990975429646266</v>
       </c>
     </row>
     <row r="11">
@@ -1759,16 +2218,25 @@
         <v>0.3106724197248416</v>
       </c>
       <c r="D11" t="n">
+        <v>0.009824324525263207</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.126</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.331849363416596</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.01049399828473399</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.8120457939328672</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.1368686883154313</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.004328167954364372</v>
       </c>
     </row>
     <row r="12">
@@ -1784,16 +2252,25 @@
         <v>0.2888551988797441</v>
       </c>
       <c r="D12" t="n">
+        <v>0.009134403424409092</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.005</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.07053367989832943</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.002230470802319546</v>
+      </c>
+      <c r="H12" t="n">
         <v>1.006104527591855</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.2868969831915653</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.0090724792071639</v>
       </c>
     </row>
     <row r="13">
@@ -1809,16 +2286,25 @@
         <v>0.3016035378430611</v>
       </c>
       <c r="D13" t="n">
+        <v>0.009537541299488606</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.008</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.08908422980528034</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.002817090697865441</v>
+      </c>
+      <c r="H13" t="n">
         <v>1.034759623010916</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.5042380404076741</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.01594540690588268</v>
       </c>
     </row>
     <row r="14">
@@ -1834,16 +2320,25 @@
         <v>0.328742417993757</v>
       </c>
       <c r="D14" t="n">
+        <v>0.01039574804371393</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.059</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.235624701591323</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.007451107300260815</v>
+      </c>
+      <c r="H14" t="n">
         <v>1.07926009876291</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.3205084196614763</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.01013536615391358</v>
       </c>
     </row>
     <row r="15">
@@ -1859,16 +2354,25 @@
         <v>0.3076667766100647</v>
       </c>
       <c r="D15" t="n">
+        <v>0.009729277744500229</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.032</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.176</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.005565608681896347</v>
+      </c>
+      <c r="H15" t="n">
         <v>1.091311427823859</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.5519254017230191</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.01745341367948161</v>
       </c>
     </row>
     <row r="16">
@@ -1884,16 +2388,25 @@
         <v>0.2635234097280623</v>
       </c>
       <c r="D16" t="n">
+        <v>0.008333341915144501</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.165</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.3711805490593493</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.01173775958179414</v>
+      </c>
+      <c r="H16" t="n">
         <v>1.13969388296075</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.3216399968884434</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.01017114976776952</v>
       </c>
     </row>
     <row r="17">
@@ -1909,16 +2422,25 @@
         <v>0.2764450533378811</v>
       </c>
       <c r="D17" t="n">
+        <v>0.008741960164344373</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.193</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.3946530121511808</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.01248002403843839</v>
+      </c>
+      <c r="H17" t="n">
         <v>1.182344470068989</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.5657234687612209</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.01788974687096573</v>
       </c>
     </row>
   </sheetData>
@@ -1932,7 +2454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1958,22 +2480,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -1990,16 +2527,25 @@
         <v>0.1720681902145339</v>
       </c>
       <c r="D2" t="n">
+        <v>0.005441273939410239</v>
+      </c>
+      <c r="E2" t="n">
         <v>1</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
         <v>2.152630987684319</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.6655496985184093</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.02104652943356566</v>
       </c>
     </row>
     <row r="3">
@@ -2015,16 +2561,25 @@
         <v>0.17251621701792</v>
       </c>
       <c r="D3" t="n">
+        <v>0.005455441790925285</v>
+      </c>
+      <c r="E3" t="n">
         <v>1</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.254168603193724</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.7064092117323365</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.02233862069198322</v>
       </c>
     </row>
     <row r="4">
@@ -2040,16 +2595,25 @@
         <v>0.1684535844053585</v>
       </c>
       <c r="D4" t="n">
+        <v>0.005326970067403538</v>
+      </c>
+      <c r="E4" t="n">
         <v>1</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>2.167170467396214</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.6666325893638123</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.02108077344885384</v>
       </c>
     </row>
     <row r="5">
@@ -2065,16 +2629,25 @@
         <v>0.1589269778452278</v>
       </c>
       <c r="D5" t="n">
+        <v>0.005025712316380388</v>
+      </c>
+      <c r="E5" t="n">
         <v>1</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>2.411881302045288</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.7617268979180997</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.02408791952435766</v>
       </c>
     </row>
     <row r="6">
@@ -2090,16 +2663,25 @@
         <v>0.1618449054780522</v>
       </c>
       <c r="D6" t="n">
+        <v>0.005117985290053074</v>
+      </c>
+      <c r="E6" t="n">
         <v>1</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>1.876159074413237</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.7122842803955675</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.02252440667584013</v>
       </c>
     </row>
     <row r="7">
@@ -2115,16 +2697,25 @@
         <v>0.2695034941782383</v>
       </c>
       <c r="D7" t="n">
+        <v>0.00852244878977162</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.545</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.4979708826829135</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.01574722197722506</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.5675192605135451</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.2178943317162367</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.006890423774635738</v>
       </c>
     </row>
     <row r="8">
@@ -2140,16 +2731,25 @@
         <v>0.1802423159568476</v>
       </c>
       <c r="D8" t="n">
+        <v>0.005699762491673498</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.599</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.490101009996919</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.01549835475139216</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.5590772913464939</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.3287821807091446</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.01039700545117971</v>
       </c>
     </row>
     <row r="9">
@@ -2165,16 +2765,25 @@
         <v>0.2619588529517675</v>
       </c>
       <c r="D9" t="n">
+        <v>0.008283866285727078</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.528</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.4992153843783262</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.01578657657631952</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.5700127647771362</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.2043461651916515</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.006461993131266369</v>
       </c>
     </row>
     <row r="10">
@@ -2190,16 +2799,25 @@
         <v>0.1832760348697194</v>
       </c>
       <c r="D10" t="n">
+        <v>0.008283866285727078</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.512</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.4998559792580259</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.01580683396509244</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.5465802008945404</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.3029855240030917</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.009581243539093872</v>
       </c>
     </row>
     <row r="11">
@@ -2215,16 +2833,25 @@
         <v>0.2466340186137333</v>
       </c>
       <c r="D11" t="n">
+        <v>0.007799252472997611</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.5679999999999999</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.4953544185732071</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.01566448211719749</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.479098302882233</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.24241375472019</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.007665796010691939</v>
       </c>
     </row>
     <row r="12">
@@ -2240,16 +2867,25 @@
         <v>0.1878459993055624</v>
       </c>
       <c r="D12" t="n">
+        <v>0.005940212071559849</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.04</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.1959591794226543</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.006196773353931867</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.5558208441408963</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.3258786812934837</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.01030518873779515</v>
       </c>
     </row>
     <row r="13">
@@ -2265,16 +2901,25 @@
         <v>0.2070921075334508</v>
       </c>
       <c r="D13" t="n">
+        <v>0.006548827452502191</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.035</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.1837797594948911</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.005811626278418117</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.5761570471468398</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.5410965212837795</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0171109744125052</v>
       </c>
     </row>
     <row r="14">
@@ -2290,16 +2935,25 @@
         <v>0.1872041200284408</v>
       </c>
       <c r="D14" t="n">
+        <v>0.005919914066574184</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.236</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.4246221850068599</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.01342773249659078</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.5964001003146684</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.3606099672903091</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.01140348843596195</v>
       </c>
     </row>
     <row r="15">
@@ -2315,16 +2969,25 @@
         <v>0.202141431609699</v>
       </c>
       <c r="D15" t="n">
+        <v>0.006392273333738055</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.15</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.3570714214271425</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.01129158979063622</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.6079534556011813</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.590067849539186</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.01865958378581364</v>
       </c>
     </row>
     <row r="16">
@@ -2340,16 +3003,25 @@
         <v>0.1692934149006054</v>
       </c>
       <c r="D16" t="n">
+        <v>0.005353527839538011</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.46</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.4983974317750844</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.01576071064387644</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.6295429583511154</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.3657280820265879</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.01156533743488907</v>
       </c>
     </row>
     <row r="17">
@@ -2365,16 +3037,25 @@
         <v>0.1927949881626149</v>
       </c>
       <c r="D17" t="n">
+        <v>0.006096712840590644</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.463</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.4986291206899171</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.01576803729067127</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.6581036941717638</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.6078904834500058</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.01922318495642909</v>
       </c>
     </row>
   </sheetData>
@@ -2388,7 +3069,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2414,22 +3095,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -2446,16 +3142,25 @@
         <v>0.09560393707634084</v>
       </c>
       <c r="D2" t="n">
+        <v>0.003023261944406561</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.974</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.1591351626762608</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0.005032295698784005</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.5789551169644115</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.265529987977187</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.008396795490850368</v>
       </c>
     </row>
     <row r="3">
@@ -2471,16 +3176,25 @@
         <v>0.09577067329591897</v>
       </c>
       <c r="D3" t="n">
+        <v>0.003028534606629689</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.987</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.1132740040786058</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0.003582038525755969</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.6452230510360287</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.2958518015801046</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.009355655428573329</v>
       </c>
     </row>
     <row r="4">
@@ -2496,16 +3210,25 @@
         <v>0.09232178882078698</v>
       </c>
       <c r="D4" t="n">
+        <v>0.002919471303347575</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.97</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.1705872210923198</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0.005394441583704471</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.5753802504373237</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.2611516728270717</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.008258341008966504</v>
       </c>
     </row>
     <row r="5">
@@ -2521,16 +3244,25 @@
         <v>0.09426319406525095</v>
       </c>
       <c r="D5" t="n">
+        <v>0.002980863927686597</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.991</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.09444045743218316</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0.002986469487538756</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.6711095289702862</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.304308440837479</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.009623077842610307</v>
       </c>
     </row>
     <row r="6">
@@ -2546,16 +3278,25 @@
         <v>0.1036767731255453</v>
       </c>
       <c r="D6" t="n">
+        <v>0.003278547435332574</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.989</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.1043024448419116</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0.003298332912245215</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.5447390964566329</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.2958332056596718</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.00935506737393578</v>
       </c>
     </row>
     <row r="7">
@@ -2571,16 +3312,25 @@
         <v>0.1667144475201285</v>
       </c>
       <c r="D7" t="n">
+        <v>0.005271973730202161</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.944</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.2299217258111986</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.007270763371201129</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.4713811300820448</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.1845205394634324</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.005835051797874301</v>
       </c>
     </row>
     <row r="8">
@@ -2596,16 +3346,25 @@
         <v>0.1679978767295739</v>
       </c>
       <c r="D8" t="n">
+        <v>0.005312559325376527</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.9350000000000001</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.246525860712421</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.007795832219846706</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.4663464392857617</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.182494955093705</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.00577099719586255</v>
       </c>
     </row>
     <row r="9">
@@ -2621,16 +3380,25 @@
         <v>0.1691431108190966</v>
       </c>
       <c r="D9" t="n">
+        <v>0.005348774807146135</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.952</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.2137662274541982</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.006759881655768835</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.476332370764553</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.1960535343572</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.006199757118948276</v>
       </c>
     </row>
     <row r="10">
@@ -2646,16 +3414,25 @@
         <v>0.1706606411311129</v>
       </c>
       <c r="D10" t="n">
+        <v>0.005348774807146135</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.912</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.2832948993540124</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.008958571314668427</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.4573439716260623</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.1879299600462076</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.005942867143304584</v>
       </c>
     </row>
     <row r="11">
@@ -2671,16 +3448,25 @@
         <v>0.1637213906257222</v>
       </c>
       <c r="D11" t="n">
+        <v>0.005177324960674222</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.95</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.2179449471770337</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.006892024376045113</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.4015783439759122</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.1647964325368203</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.005211320770866322</v>
       </c>
     </row>
     <row r="12">
@@ -2696,16 +3482,25 @@
         <v>0.1111202156954354</v>
       </c>
       <c r="D12" t="n">
+        <v>0.003513929756867672</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.913</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.2818350581457176</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.008912407082264592</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.4556685089668414</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.3111578177778734</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.009839674159457124</v>
       </c>
     </row>
     <row r="13">
@@ -2721,16 +3516,25 @@
         <v>0.1502641928133339</v>
       </c>
       <c r="D13" t="n">
+        <v>0.004751771000568398</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.907</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.2904324362050492</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.009184280047995052</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.4719586029454932</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.5125653824522245</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.01620874058304331</v>
       </c>
     </row>
     <row r="14">
@@ -2746,16 +3550,25 @@
         <v>0.1158775942493953</v>
       </c>
       <c r="D14" t="n">
+        <v>0.003664371276089186</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.9389999999999999</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.239330315672712</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.007568289106528635</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.4927852593382377</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.3374789452231227</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.01067202129256269</v>
       </c>
     </row>
     <row r="15">
@@ -2771,16 +3584,25 @@
         <v>0.1407675358180096</v>
       </c>
       <c r="D15" t="n">
+        <v>0.00445146033794244</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.9330000000000001</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.2500219990320852</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.007906389820898032</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.5039826174050753</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.5583431163073276</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.01765635963407457</v>
       </c>
     </row>
     <row r="16">
@@ -2796,16 +3618,25 @@
         <v>0.104802870384828</v>
       </c>
       <c r="D16" t="n">
+        <v>0.003314157757394637</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.9389999999999999</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.239330315672712</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.007568289106528635</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.5027716947631907</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.3900108457237877</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.0123332258465571</v>
       </c>
     </row>
     <row r="17">
@@ -2821,16 +3652,25 @@
         <v>0.1398914486082216</v>
       </c>
       <c r="D17" t="n">
+        <v>0.00442375602782372</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.9389999999999999</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.239330315672712</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.007568289106528635</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.52221247664571</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.5600903043358227</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.01771161057078081</v>
       </c>
     </row>
   </sheetData>
@@ -2844,7 +3684,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2870,22 +3710,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -2902,16 +3757,25 @@
         <v>0.1332200735774864</v>
       </c>
       <c r="D2" t="n">
+        <v>0.00421278862560073</v>
+      </c>
+      <c r="E2" t="n">
         <v>1</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
         <v>1.446000069114901</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.2115282520939027</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.006689110660910138</v>
       </c>
     </row>
     <row r="3">
@@ -2927,16 +3791,25 @@
         <v>0.1332343498925488</v>
       </c>
       <c r="D3" t="n">
+        <v>0.004213240082322644</v>
+      </c>
+      <c r="E3" t="n">
         <v>1</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>1.569983702483826</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.2372900339756604</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.007503769734218266</v>
       </c>
     </row>
     <row r="4">
@@ -2952,16 +3825,25 @@
         <v>0.1386781328859856</v>
       </c>
       <c r="D4" t="n">
+        <v>0.004385387615792142</v>
+      </c>
+      <c r="E4" t="n">
         <v>1</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>1.447902235295406</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.2041051176256786</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.006454370537937229</v>
       </c>
     </row>
     <row r="5">
@@ -2977,16 +3859,25 @@
         <v>0.1421915883865101</v>
       </c>
       <c r="D5" t="n">
+        <v>0.004496492834185184</v>
+      </c>
+      <c r="E5" t="n">
         <v>1</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>1.612639761453263</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.2405045546676663</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.007605421803943058</v>
       </c>
     </row>
     <row r="6">
@@ -3002,16 +3893,25 @@
         <v>0.1260334161160387</v>
       </c>
       <c r="D6" t="n">
+        <v>0.003985526562184544</v>
+      </c>
+      <c r="E6" t="n">
         <v>1</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>1.379535324306046</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.2513193310441575</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.007947415061294009</v>
       </c>
     </row>
     <row r="7">
@@ -3027,16 +3927,25 @@
         <v>0.2029029800909274</v>
       </c>
       <c r="D7" t="n">
+        <v>0.006416355611231292</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.894</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.3078376195334157</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.009734680272099337</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.9175577570548055</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.1423699380135649</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.004502132744598533</v>
       </c>
     </row>
     <row r="8">
@@ -3052,16 +3961,25 @@
         <v>0.203812696997266</v>
       </c>
       <c r="D8" t="n">
+        <v>0.006445123385731211</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.858</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.3490501396647765</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.01103793458940575</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.8328936955329355</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.1444716327122685</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.004568594166540578</v>
       </c>
     </row>
     <row r="9">
@@ -3077,16 +3995,25 @@
         <v>0.2195595952006852</v>
       </c>
       <c r="D9" t="n">
+        <v>0.006943084029787393</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.914</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.2803640490505157</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.008865889690267975</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.9310171123163288</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.1546196142752862</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.004889501520465893</v>
       </c>
     </row>
     <row r="10">
@@ -3102,16 +4029,25 @@
         <v>0.2094996418227157</v>
       </c>
       <c r="D10" t="n">
+        <v>0.006943084029787393</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.8070000000000001</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.3946530121511808</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.01248002403843839</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.81250905746631</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.1519668925563853</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.004805615094162656</v>
       </c>
     </row>
     <row r="11">
@@ -3127,16 +4063,25 @@
         <v>0.1836577599119927</v>
       </c>
       <c r="D11" t="n">
+        <v>0.005807768312862621</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.904</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.2945912422323515</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.009315793041926168</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.7388223416449339</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.1185728410000815</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.00374960246197255</v>
       </c>
     </row>
     <row r="12">
@@ -3152,16 +4097,25 @@
         <v>0.1807767710148415</v>
       </c>
       <c r="D12" t="n">
+        <v>0.005716663444576078</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.912</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.2832948993540124</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.008958571314668427</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.9432900419599932</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.2679016898486299</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.008471795289296804</v>
       </c>
     </row>
     <row r="13">
@@ -3177,16 +4131,25 @@
         <v>0.2104513595558305</v>
       </c>
       <c r="D13" t="n">
+        <v>0.006655056328754661</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.889</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.3141321378019129</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.00993373041711924</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.9675273968390095</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.4722500351579847</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.01493385736193827</v>
       </c>
     </row>
     <row r="14">
@@ -3202,16 +4165,25 @@
         <v>0.1650899257811482</v>
       </c>
       <c r="D14" t="n">
+        <v>0.005220601842165808</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.96</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.1959591794226543</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.006196773353931867</v>
+      </c>
+      <c r="H14" t="n">
         <v>1.020252605412805</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.2911258786167409</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.00920620862246611</v>
       </c>
     </row>
     <row r="15">
@@ -3227,16 +4199,25 @@
         <v>0.1933280604545021</v>
       </c>
       <c r="D15" t="n">
+        <v>0.006113570066589538</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.947</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.2240334796408786</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.00708456067798138</v>
+      </c>
+      <c r="H15" t="n">
         <v>1.032681483954979</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.5159697112913593</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.01631639491340194</v>
       </c>
     </row>
     <row r="16">
@@ -3252,16 +4233,25 @@
         <v>0.1545790675749096</v>
       </c>
       <c r="D16" t="n">
+        <v>0.004888219321217949</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.967</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.1786365024288149</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.005648982209212559</v>
+      </c>
+      <c r="H16" t="n">
         <v>1.038998750516832</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.3479668629084923</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.01100367837054398</v>
       </c>
     </row>
     <row r="17">
@@ -3277,16 +4267,25 @@
         <v>0.1852920399936347</v>
       </c>
       <c r="D17" t="n">
+        <v>0.005859448786788971</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.965</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.1837797594948911</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.005811626278418117</v>
+      </c>
+      <c r="H17" t="n">
         <v>1.071285449608878</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.5161959740488947</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.01632354997003676</v>
       </c>
     </row>
   </sheetData>
@@ -3300,7 +4299,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3326,22 +4325,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -3358,16 +4372,25 @@
         <v>0.09846058165852431</v>
       </c>
       <c r="D2" t="n">
+        <v>0.003113596977859359</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.992</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.08908422980528033</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0.002817090697865441</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.7322132962056888</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.2547291776169051</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.008055243877710023</v>
       </c>
     </row>
     <row r="3">
@@ -3383,16 +4406,25 @@
         <v>0.09855011734770698</v>
       </c>
       <c r="D3" t="n">
+        <v>0.003116428344956261</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.997</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.05469003565550128</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0.001729450779872038</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.8055598854658288</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.2846110559883193</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.009000191841887941</v>
       </c>
     </row>
     <row r="4">
@@ -3408,16 +4440,25 @@
         <v>0.09704546304427339</v>
       </c>
       <c r="D4" t="n">
+        <v>0.003068846998056018</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.989</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.1043024448419116</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0.003298332912245215</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.7300652257489536</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.2511344677473004</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.007941569170555643</v>
       </c>
     </row>
     <row r="5">
@@ -3433,16 +4474,25 @@
         <v>0.09861616025391168</v>
       </c>
       <c r="D5" t="n">
+        <v>0.003118516805025298</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.997</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.05469003565550128</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0.001729450779872038</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.83371090545388</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.2889071688455673</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.009136046859028314</v>
       </c>
     </row>
     <row r="6">
@@ -3458,16 +4508,25 @@
         <v>0.1027752784610555</v>
       </c>
       <c r="D6" t="n">
+        <v>0.003250039670949802</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.996</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.063118935352238</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0.001995995991979944</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.6862775375320007</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.2891047028337611</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.009142293432208206</v>
       </c>
     </row>
     <row r="7">
@@ -3483,16 +4542,25 @@
         <v>0.1816006223262387</v>
       </c>
       <c r="D7" t="n">
+        <v>0.005742715910549396</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.925</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.2633913438213185</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.008329165624478841</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.5204622219800665</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.2122232519542066</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.006711088486230729</v>
       </c>
     </row>
     <row r="8">
@@ -3508,16 +4576,25 @@
         <v>0.1277569572671295</v>
       </c>
       <c r="D8" t="n">
+        <v>0.0040400297189693</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.905</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.293214938227915</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.00927227048785787</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.5122521678226931</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.3260082482089538</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.01030928600341803</v>
       </c>
     </row>
     <row r="9">
@@ -3533,16 +4610,25 @@
         <v>0.1827203512030746</v>
       </c>
       <c r="D9" t="n">
+        <v>0.005778124846676031</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.2374868417407584</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.007509993342207436</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.5266825711329575</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.2238009802319298</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.007077208401112168</v>
       </c>
     </row>
     <row r="10">
@@ -3558,16 +4644,25 @@
         <v>0.1299534970038386</v>
       </c>
       <c r="D10" t="n">
+        <v>0.005778124846676031</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.879</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.326127275768219</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.01031304998533412</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.5030164530769864</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.3202220962372361</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.01012631181223301</v>
       </c>
     </row>
     <row r="11">
@@ -3583,16 +4678,25 @@
         <v>0.1733872438837832</v>
       </c>
       <c r="D11" t="n">
+        <v>0.005482986078918542</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.9389999999999999</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.239330315672712</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.007568289106528635</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.4384586843107603</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.2375762866823077</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.007512821839612201</v>
       </c>
     </row>
     <row r="12">
@@ -3608,16 +4712,25 @@
         <v>0.1203909294813028</v>
       </c>
       <c r="D12" t="n">
+        <v>0.003807095467856306</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.893</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.3091132478558627</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.009775019181566858</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.5211297081709362</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.3046475773061474</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.009633802279396494</v>
       </c>
     </row>
     <row r="13">
@@ -3633,16 +4746,25 @@
         <v>0.1534605461578681</v>
       </c>
       <c r="D13" t="n">
+        <v>0.004852848568322648</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.889</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.314132137801913</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.009933730417119242</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.538687637874209</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.5067113184311977</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.01602361882429442</v>
       </c>
     </row>
     <row r="14">
@@ -3658,16 +4780,25 @@
         <v>0.1208682830089686</v>
       </c>
       <c r="D14" t="n">
+        <v>0.003822190711821707</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.946</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.2260176984220484</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.007147307185227175</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.5636071648316465</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.3305013501356958</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.01045137036189599</v>
       </c>
     </row>
     <row r="15">
@@ -3683,16 +4814,25 @@
         <v>0.1425095416151394</v>
       </c>
       <c r="D15" t="n">
+        <v>0.004506547398103913</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.928</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.2584879107424562</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.008174105455644672</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.5751630804766171</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.5521683835263741</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.01746109743876739</v>
       </c>
     </row>
     <row r="16">
@@ -3708,16 +4848,25 @@
         <v>0.1143815455395542</v>
       </c>
       <c r="D16" t="n">
+        <v>0.003617062061952645</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.95</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.2179449471770337</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.006892024376045112</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.5747547426924339</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.3835182916302292</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.01212791325888215</v>
       </c>
     </row>
     <row r="17">
@@ -3733,16 +4882,25 @@
         <v>0.1411104218493542</v>
       </c>
       <c r="D17" t="n">
+        <v>0.004462303346311489</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.9429999999999999</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.2318426190328259</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.007331507348424336</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.5961518918603689</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.553662944478961</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.01750835960588864</v>
       </c>
     </row>
   </sheetData>
@@ -3756,7 +4914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3782,22 +4940,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -3814,16 +4987,25 @@
         <v>0.1317526697362485</v>
       </c>
       <c r="D2" t="n">
+        <v>0.004166385241744812</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.998</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.04467661580737736</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0.001412798640995949</v>
+      </c>
+      <c r="H2" t="n">
         <v>1.186497540825956</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.1953775920052706</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.006178381944957595</v>
       </c>
     </row>
     <row r="3">
@@ -3839,16 +5021,25 @@
         <v>0.131735744017614</v>
       </c>
       <c r="D3" t="n">
+        <v>0.004165850003525608</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.998</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.04467661580737736</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0.001412798640995949</v>
+      </c>
+      <c r="H3" t="n">
         <v>1.186901097476396</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.1954876103498387</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.006181861030489959</v>
       </c>
     </row>
     <row r="4">
@@ -3864,16 +5055,25 @@
         <v>0.1375793876330149</v>
       </c>
       <c r="D4" t="n">
+        <v>0.004350642240115288</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.993</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.08337265738837882</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0.002636474919281425</v>
+      </c>
+      <c r="H4" t="n">
         <v>1.194971247098839</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.1932775605481183</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.006111973119331558</v>
       </c>
     </row>
     <row r="5">
@@ -3889,16 +5089,25 @@
         <v>0.1421036246790846</v>
       </c>
       <c r="D5" t="n">
+        <v>0.004493711177516212</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.992</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.08908422980528033</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0.002817090697865441</v>
+      </c>
+      <c r="H5" t="n">
         <v>1.204949829598367</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.1942952232722077</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.006144154440311298</v>
       </c>
     </row>
     <row r="6">
@@ -3914,16 +5123,25 @@
         <v>0.119856121053346</v>
       </c>
       <c r="D6" t="n">
+        <v>0.00379018334041433</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.996</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.063118935352238</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0.001995995991979944</v>
+      </c>
+      <c r="H6" t="n">
         <v>1.04957034614606</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.2071627332893087</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.006551060835002012</v>
       </c>
     </row>
     <row r="7">
@@ -3939,16 +5157,25 @@
         <v>0.1516638226894562</v>
       </c>
       <c r="D7" t="n">
+        <v>0.004796031183466056</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.994</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.07722693830523129</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.002442130217658346</v>
+      </c>
+      <c r="H7" t="n">
         <v>1.502808805593962</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.4256009829061362</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.01345868480389779</v>
       </c>
     </row>
     <row r="8">
@@ -3964,16 +5191,25 @@
         <v>0.1514148411287891</v>
       </c>
       <c r="D8" t="n">
+        <v>0.00478815769519514</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.993</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.08337265738837883</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.002636474919281425</v>
+      </c>
+      <c r="H8" t="n">
         <v>1.319661688505244</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.4221809912083433</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.01335053517045887</v>
       </c>
     </row>
     <row r="9">
@@ -3989,16 +5225,25 @@
         <v>0.148040934952663</v>
       </c>
       <c r="D9" t="n">
+        <v>0.004681465413912464</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.999</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.03160696125855822</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.0009994998749374611</v>
+      </c>
+      <c r="H9" t="n">
         <v>1.487425519074814</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.2635240517151076</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.008333362216557413</v>
       </c>
     </row>
     <row r="10">
@@ -4014,16 +5259,25 @@
         <v>0.1492664562142093</v>
       </c>
       <c r="D10" t="n">
+        <v>0.004720219798986955</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.993</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.08337265738837883</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.002636474919281425</v>
+      </c>
+      <c r="H10" t="n">
         <v>1.301238039038247</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.2797812823886147</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.008847460990307771</v>
       </c>
     </row>
     <row r="11">
@@ -4039,16 +5293,25 @@
         <v>5.487338648382893</v>
       </c>
       <c r="D11" t="n">
+        <v>0.1735248842155977</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.993</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.08337265738837882</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.002636474919281425</v>
+      </c>
+      <c r="H11" t="n">
         <v>2.201748625825143</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>1.735131992130901</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.05486969136159005</v>
       </c>
     </row>
     <row r="12">
@@ -4064,16 +5327,25 @@
         <v>0.1886493629314383</v>
       </c>
       <c r="D12" t="n">
+        <v>0.005965616660030842</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.917</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.2758822212466762</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.008724161850859944</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.9163985247890132</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.1406642057340285</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.004448192753780471</v>
       </c>
     </row>
     <row r="13">
@@ -4089,16 +5361,25 @@
         <v>0.1757093692845527</v>
       </c>
       <c r="D13" t="n">
+        <v>0.005556418131708172</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.883</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.3214202856074893</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.01016420188701504</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.834569964275137</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.1431150159950772</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.00452569417915873</v>
       </c>
     </row>
     <row r="14">
@@ -4114,16 +5395,25 @@
         <v>0.1872518751631761</v>
       </c>
       <c r="D14" t="n">
+        <v>0.005921424216531501</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.923</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.266591447724791</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.008430361795320531</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.9317761482279732</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.1508068911336118</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.004768932628312655</v>
       </c>
     </row>
     <row r="15">
@@ -4139,16 +5429,25 @@
         <v>0.1777258423925102</v>
       </c>
       <c r="D15" t="n">
+        <v>0.005921424216531501</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.845</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.3619046835839513</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.01144443096007835</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.8149598696258608</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.1494769812283256</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.004726877184477424</v>
       </c>
     </row>
     <row r="16">
@@ -4164,16 +5463,25 @@
         <v>0.1520004525347261</v>
       </c>
       <c r="D16" t="n">
+        <v>0.004806676353860484</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.911</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.2847437444440176</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.00900438781928011</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.7426167382657177</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.1321866881888208</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.004180110110311514</v>
       </c>
     </row>
     <row r="17">
@@ -4189,16 +5497,25 @@
         <v>0.1965695339322544</v>
       </c>
       <c r="D17" t="n">
+        <v>0.006216074458236782</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.869</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.3374003556607491</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.01066953607238853</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.9403993222382742</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.2673655265544658</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.008454840317223428</v>
       </c>
     </row>
     <row r="18">
@@ -4214,16 +5531,25 @@
         <v>0.2300235815644827</v>
       </c>
       <c r="D18" t="n">
+        <v>0.007273984332932827</v>
+      </c>
+      <c r="E18" t="n">
         <v>0.874</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>0.331849363416596</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
+        <v>0.01049399828473399</v>
+      </c>
+      <c r="H18" t="n">
         <v>0.9651717624600282</v>
       </c>
-      <c r="G18" t="n">
+      <c r="I18" t="n">
         <v>0.4708880869374249</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.01489078877761644</v>
       </c>
     </row>
     <row r="19">
@@ -4239,16 +5565,25 @@
         <v>0.18203570407541</v>
       </c>
       <c r="D19" t="n">
+        <v>0.005756474403506909</v>
+      </c>
+      <c r="E19" t="n">
         <v>0.954</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>0.2094850830011531</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
+        <v>0.006624499981130651</v>
+      </c>
+      <c r="H19" t="n">
         <v>1.014976877277537</v>
       </c>
-      <c r="G19" t="n">
+      <c r="I19" t="n">
         <v>0.289891910529239</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.009167187125301431</v>
       </c>
     </row>
     <row r="20">
@@ -4264,16 +5599,25 @@
         <v>0.2002448978520575</v>
       </c>
       <c r="D20" t="n">
+        <v>0.006332299670402605</v>
+      </c>
+      <c r="E20" t="n">
         <v>0.93</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>0.2551470164434614</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
+        <v>0.008068457101577723</v>
+      </c>
+      <c r="H20" t="n">
         <v>1.026203417309366</v>
       </c>
-      <c r="G20" t="n">
+      <c r="I20" t="n">
         <v>0.5134069887463486</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.01623535451086897</v>
       </c>
     </row>
     <row r="21">
@@ -4289,16 +5633,25 @@
         <v>0.1568027540075755</v>
       </c>
       <c r="D21" t="n">
+        <v>0.004958538460510337</v>
+      </c>
+      <c r="E21" t="n">
         <v>0.962</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>0.19119623427254</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
+        <v>0.006046155803483731</v>
+      </c>
+      <c r="H21" t="n">
         <v>1.037098896364645</v>
       </c>
-      <c r="G21" t="n">
+      <c r="I21" t="n">
         <v>0.346814509369483</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.01096723775201373</v>
       </c>
     </row>
     <row r="22">
@@ -4314,16 +5667,25 @@
         <v>0.1577250936855446</v>
       </c>
       <c r="D22" t="n">
+        <v>0.004987705402097624</v>
+      </c>
+      <c r="E22" t="n">
         <v>0.957</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>0.2028570925553257</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
+        <v>0.006414904519944159</v>
+      </c>
+      <c r="H22" t="n">
         <v>1.074948284870584</v>
       </c>
-      <c r="G22" t="n">
+      <c r="I22" t="n">
         <v>0.6388753587946081</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.02020301274748247</v>
       </c>
     </row>
   </sheetData>
@@ -4337,7 +5699,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4363,22 +5725,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -4395,16 +5772,25 @@
         <v>0.08988159700155354</v>
       </c>
       <c r="D2" t="n">
+        <v>0.002842305662582699</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.98</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.14</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0.004427188724235731</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.6261894728562379</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.2292317178593654</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.00724894340388692</v>
       </c>
     </row>
     <row r="3">
@@ -4420,16 +5806,25 @@
         <v>0.08985893832897067</v>
       </c>
       <c r="D3" t="n">
+        <v>0.002841589132441521</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.982</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.132951118836962</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0.004204283529925163</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.6267315286083799</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.2294710150584775</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.007256510645755852</v>
       </c>
     </row>
     <row r="4">
@@ -4445,16 +5840,25 @@
         <v>0.08974970433066162</v>
       </c>
       <c r="D4" t="n">
+        <v>0.002838134850115685</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.981</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.1365247230357931</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0.004317290817167638</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.6283375794910531</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.2292435706184168</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.007249318221038518</v>
       </c>
     </row>
     <row r="5">
@@ -4470,16 +5874,25 @@
         <v>0.09454426271838116</v>
       </c>
       <c r="D5" t="n">
+        <v>0.002989752098914269</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.977</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.1499033021650958</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0.004740358636221526</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.6419033084320611</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.2293983767649752</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.007254213621227702</v>
       </c>
     </row>
     <row r="6">
@@ -4495,16 +5908,25 @@
         <v>0.0906685856103079</v>
       </c>
       <c r="D6" t="n">
+        <v>0.002867192427545409</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.982</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.132951118836962</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0.004204283529925163</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.5381956141036093</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.2340819172370034</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.007402320175279595</v>
       </c>
     </row>
     <row r="7">
@@ -4520,16 +5942,25 @@
         <v>1.922699012011352</v>
       </c>
       <c r="D7" t="n">
+        <v>0.06080108132911312</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.969</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.1733176274935703</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.005480784615363023</v>
+      </c>
+      <c r="H7" t="n">
         <v>1.048511972728597</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>3.948543755074738</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.1248639170687021</v>
       </c>
     </row>
     <row r="8">
@@ -4545,16 +5976,25 @@
         <v>3.108139685858032</v>
       </c>
       <c r="D8" t="n">
+        <v>0.09828800693271618</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.961</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.1935949379503503</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.006122009474020765</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.8724639519561391</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.4949780610094623</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.01565258064603684</v>
       </c>
     </row>
     <row r="9">
@@ -4570,16 +6010,25 @@
         <v>0.2069064148990147</v>
       </c>
       <c r="D9" t="n">
+        <v>0.006542955335806841</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.97</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.1705872210923198</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.005394441583704471</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.9048403611110758</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.4268573080410316</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.01349841329297766</v>
       </c>
     </row>
     <row r="10">
@@ -4595,16 +6044,25 @@
         <v>0.3250285168560095</v>
       </c>
       <c r="D10" t="n">
+        <v>0.0102783041777142</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.96</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.1959591794226543</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.006196773353931867</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.8729554121328237</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.4528397528351065</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.01432005034026628</v>
       </c>
     </row>
     <row r="11">
@@ -4620,16 +6078,25 @@
         <v>1.413496236820934</v>
       </c>
       <c r="D11" t="n">
+        <v>0.04469867572430912</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.96</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.1959591794226543</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.006196773353931868</v>
+      </c>
+      <c r="H11" t="n">
         <v>1.366423866999724</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.9923717939635934</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.03138155154632289</v>
       </c>
     </row>
     <row r="12">
@@ -4645,16 +6112,25 @@
         <v>0.1577718592403702</v>
       </c>
       <c r="D12" t="n">
+        <v>0.004989184258790528</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.9360000000000001</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.2447529366524537</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.007739767438366608</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.5211163906487154</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.2078582908205848</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.006573056295427175</v>
       </c>
     </row>
     <row r="13">
@@ -4670,16 +6146,25 @@
         <v>0.1337460624678587</v>
       </c>
       <c r="D13" t="n">
+        <v>0.00422942185477594</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.92</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.2712931993250107</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.008579044235810887</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.5125547941980408</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.3236722412487644</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.01023541497717598</v>
       </c>
     </row>
     <row r="14">
@@ -4695,16 +6180,25 @@
         <v>0.1584413377454642</v>
       </c>
       <c r="D14" t="n">
+        <v>0.005010355027996745</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.9419999999999999</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.2337434491060659</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.007391616873188167</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.5231300394319376</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.1894904812077452</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.005992215155378088</v>
       </c>
     </row>
     <row r="15">
@@ -4720,16 +6214,25 @@
         <v>0.130670709633229</v>
       </c>
       <c r="D15" t="n">
+        <v>0.005010355027996745</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.891</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.3116392144772541</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.00985489725973843</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.500246766759731</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.294851440147755</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.009324021222477196</v>
       </c>
     </row>
     <row r="16">
@@ -4745,16 +6248,25 @@
         <v>0.1603134950869483</v>
       </c>
       <c r="D16" t="n">
+        <v>0.005069557841369697</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.944</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.2299217258111986</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.007270763371201129</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.4387519813308776</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.2370822023364446</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.007497197520720583</v>
       </c>
     </row>
     <row r="17">
@@ -4770,16 +6282,25 @@
         <v>0.1318003458118415</v>
       </c>
       <c r="D17" t="n">
+        <v>0.004167892891632534</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.874</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.331849363416596</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.01049399828473399</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.5195605910530894</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.3039826331278573</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.009612774898193835</v>
       </c>
     </row>
     <row r="18">
@@ -4795,16 +6316,25 @@
         <v>0.1701168905091906</v>
       </c>
       <c r="D18" t="n">
+        <v>0.005379568424745237</v>
+      </c>
+      <c r="E18" t="n">
         <v>0.865</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>0.3417235724968355</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
+        <v>0.01080624819259673</v>
+      </c>
+      <c r="H18" t="n">
         <v>0.5373367044570825</v>
       </c>
-      <c r="G18" t="n">
+      <c r="I18" t="n">
         <v>0.5052716994230627</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.01597809407400863</v>
       </c>
     </row>
     <row r="19">
@@ -4820,16 +6350,25 @@
         <v>0.1354345066651752</v>
       </c>
       <c r="D19" t="n">
+        <v>0.004282815148432089</v>
+      </c>
+      <c r="E19" t="n">
         <v>0.9389999999999999</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>0.239330315672712</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
+        <v>0.007568289106528635</v>
+      </c>
+      <c r="H19" t="n">
         <v>0.5607021768473009</v>
       </c>
-      <c r="G19" t="n">
+      <c r="I19" t="n">
         <v>0.3290493047559706</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.01040545265523743</v>
       </c>
     </row>
     <row r="20">
@@ -4845,16 +6384,25 @@
         <v>0.1494208400449833</v>
       </c>
       <c r="D20" t="n">
+        <v>0.004725101844378434</v>
+      </c>
+      <c r="E20" t="n">
         <v>0.918</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>0.2743647207641682</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
+        <v>0.008676174272108645</v>
+      </c>
+      <c r="H20" t="n">
         <v>0.5714950495588298</v>
       </c>
-      <c r="G20" t="n">
+      <c r="I20" t="n">
         <v>0.5493830416283043</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.01737301719416541</v>
       </c>
     </row>
     <row r="21">
@@ -4870,16 +6418,25 @@
         <v>0.1058538972776457</v>
       </c>
       <c r="D21" t="n">
+        <v>0.003347394146028573</v>
+      </c>
+      <c r="E21" t="n">
         <v>0.946</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>0.2260176984220484</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
+        <v>0.007147307185227175</v>
+      </c>
+      <c r="H21" t="n">
         <v>0.5736360546304188</v>
       </c>
-      <c r="G21" t="n">
+      <c r="I21" t="n">
         <v>0.3821319875764828</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.01208407447548852</v>
       </c>
     </row>
     <row r="22">
@@ -4895,16 +6452,25 @@
         <v>0.1086335460330728</v>
       </c>
       <c r="D22" t="n">
+        <v>0.003435294357652594</v>
+      </c>
+      <c r="E22" t="n">
         <v>0.945</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>0.22798026230356</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
+        <v>0.007209368904418751</v>
+      </c>
+      <c r="H22" t="n">
         <v>0.6006151289804827</v>
       </c>
-      <c r="G22" t="n">
+      <c r="I22" t="n">
         <v>0.6733078074476757</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.02129186237908738</v>
       </c>
     </row>
   </sheetData>
@@ -4918,7 +6484,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4944,22 +6510,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -4976,16 +6557,25 @@
         <v>0.1205383784489984</v>
       </c>
       <c r="D2" t="n">
+        <v>0.003811758213621892</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.98</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.14</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0.004427188724235731</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.7674729117375707</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.3519547914908264</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0111297877452066</v>
       </c>
     </row>
     <row r="3">
@@ -5001,16 +6591,25 @@
         <v>0.1207658744818571</v>
       </c>
       <c r="D3" t="n">
+        <v>0.003818952269846752</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.99</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.099498743710662</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0.003146426544510455</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.8496721011420382</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.3899416295879937</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.01233103704015766</v>
       </c>
     </row>
     <row r="4">
@@ -5026,16 +6625,25 @@
         <v>0.1177409559406075</v>
       </c>
       <c r="D4" t="n">
+        <v>0.003723295946578524</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.981</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.1365247230357931</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0.004317290817167638</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.7673351675126584</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.3478142919522023</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.01099885365327732</v>
       </c>
     </row>
     <row r="5">
@@ -5051,16 +6659,25 @@
         <v>0.1151226498691347</v>
       </c>
       <c r="D5" t="n">
+        <v>0.003640497838605507</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.996</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.063118935352238</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0.001995995991979944</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.8926962898777588</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.4062007685924126</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.01284519616063012</v>
       </c>
     </row>
     <row r="6">
@@ -5076,16 +6693,25 @@
         <v>0.1260857358874607</v>
       </c>
       <c r="D6" t="n">
+        <v>0.003987181058628076</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.991</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.09444045743218316</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0.002986469487538756</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.7144411574414377</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.3903005497634285</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.01234238709268327</v>
       </c>
     </row>
     <row r="7">
@@ -5101,16 +6727,25 @@
         <v>0.1623737426132608</v>
       </c>
       <c r="D7" t="n">
+        <v>0.00513470858863845</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.9320000000000001</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.251745903640953</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.007960904471226871</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.5148443135948052</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.2228786652416786</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.007048042240219069</v>
       </c>
     </row>
     <row r="8">
@@ -5126,16 +6761,25 @@
         <v>0.1646510574941922</v>
       </c>
       <c r="D8" t="n">
+        <v>0.005206723608369835</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.924</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.2649981132008302</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.008379976133617566</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.5098981645713685</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.2218042811304314</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.007014067231484699</v>
       </c>
     </row>
     <row r="9">
@@ -5151,16 +6795,25 @@
         <v>0.1593219034145958</v>
       </c>
       <c r="D9" t="n">
+        <v>0.005038200959434807</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.946</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.2260176984220484</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.007147307185227175</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.5164051182412341</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.2086113356114155</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.006596869662618675</v>
       </c>
     </row>
     <row r="10">
@@ -5176,16 +6829,25 @@
         <v>0.1651147176083788</v>
       </c>
       <c r="D10" t="n">
+        <v>0.005038200959434807</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.906</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.2918287168871494</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.009228434320078352</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.4986267263149735</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.2062469398695368</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.006522100904275274</v>
       </c>
     </row>
     <row r="11">
@@ -5201,16 +6863,25 @@
         <v>0.19113876512012</v>
       </c>
       <c r="D11" t="n">
+        <v>0.006044338469315264</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.9340000000000001</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.2482820976228451</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.007851369307324678</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.4354638500165045</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.1735738376177908</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.005488886690884337</v>
       </c>
     </row>
     <row r="12">
@@ -5226,16 +6897,25 @@
         <v>0.1202177395516723</v>
       </c>
       <c r="D12" t="n">
+        <v>0.003801618721401938</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.906</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.2918287168871494</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.009228434320078352</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.5188391878421627</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.3608792652069129</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.01141200438381801</v>
       </c>
     </row>
     <row r="13">
@@ -5251,16 +6931,25 @@
         <v>0.1540055940700244</v>
       </c>
       <c r="D13" t="n">
+        <v>0.004870084496685981</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.928</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.2584879107424562</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.008174105455644672</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.5402163534710864</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.585818944170992</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.01852522160055355</v>
       </c>
     </row>
     <row r="14">
@@ -5276,16 +6965,25 @@
         <v>0.1209676650976642</v>
       </c>
       <c r="D14" t="n">
+        <v>0.003825333449410737</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.916</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.2773878151613729</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.008771772910877253</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.5486495902373683</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.3830150186449707</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.01211199836969966</v>
       </c>
     </row>
     <row r="15">
@@ -5301,16 +6999,25 @@
         <v>0.1504636891530994</v>
       </c>
       <c r="D15" t="n">
+        <v>0.004758079628753653</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.9340000000000001</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.2482820976228452</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.00785136930732468</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.5702331456680265</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.6438267175733408</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.02035958846001712</v>
       </c>
     </row>
     <row r="16">
@@ -5326,16 +7033,25 @@
         <v>0.1210904311926427</v>
       </c>
       <c r="D16" t="n">
+        <v>0.003829215654206504</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.93</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.2551470164434614</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.008068457101577723</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.5950927707774872</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.4122772638217824</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.01303735181178968</v>
       </c>
     </row>
     <row r="17">
@@ -5351,16 +7067,25 @@
         <v>0.1474003471764168</v>
       </c>
       <c r="D17" t="n">
+        <v>0.004661208249770462</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.9429999999999999</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.2318426190328259</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.007331507348424336</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.6260469592904938</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.6693987588313315</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.0211682474079676</v>
       </c>
     </row>
   </sheetData>
@@ -5374,7 +7099,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5400,22 +7125,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -5432,16 +7172,25 @@
         <v>0.1617095858322959</v>
       </c>
       <c r="D2" t="n">
+        <v>0.005113706107125504</v>
+      </c>
+      <c r="E2" t="n">
         <v>1</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
         <v>1.959973382978894</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.2778231709006525</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.008785540068162751</v>
       </c>
     </row>
     <row r="3">
@@ -5457,16 +7206,25 @@
         <v>0.1617381006006711</v>
       </c>
       <c r="D3" t="n">
+        <v>0.005114607823275682</v>
+      </c>
+      <c r="E3" t="n">
         <v>1</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.113906777471543</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.3102221762163648</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.009810086575378289</v>
       </c>
     </row>
     <row r="4">
@@ -5482,16 +7240,25 @@
         <v>0.174354749727536</v>
       </c>
       <c r="D4" t="n">
+        <v>0.005513581300076358</v>
+      </c>
+      <c r="E4" t="n">
         <v>1</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>1.970948780225058</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.2694013256538214</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.008519217937348261</v>
       </c>
     </row>
     <row r="5">
@@ -5507,16 +7274,25 @@
         <v>0.1727351841382569</v>
       </c>
       <c r="D5" t="n">
+        <v>0.005462366139254812</v>
+      </c>
+      <c r="E5" t="n">
         <v>1</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>2.201425173715921</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.3195656288214399</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.010105552489797</v>
       </c>
     </row>
     <row r="6">
@@ -5532,16 +7308,25 @@
         <v>0.1515574857597046</v>
       </c>
       <c r="D6" t="n">
+        <v>0.004792668514492011</v>
+      </c>
+      <c r="E6" t="n">
         <v>1</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>1.852447833372044</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.3299093758188589</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.01043265049032072</v>
       </c>
     </row>
     <row r="7">
@@ -5557,16 +7342,25 @@
         <v>0.276868199889177</v>
       </c>
       <c r="D7" t="n">
+        <v>0.008755341233205777</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.839</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.3675309510775929</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.0116223491601311</v>
+      </c>
+      <c r="H7" t="n">
         <v>1.067006670717071</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.145085421730402</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.004588003879541581</v>
       </c>
     </row>
     <row r="8">
@@ -5582,16 +7376,25 @@
         <v>0.2580238273211651</v>
       </c>
       <c r="D8" t="n">
+        <v>0.008159429849288639</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.819</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.3850181813888793</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.0121753439376471</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.9831850181663783</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.1557661392436546</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.00492575782340886</v>
       </c>
     </row>
     <row r="9">
@@ -5607,16 +7410,25 @@
         <v>0.2788763877075079</v>
       </c>
       <c r="D9" t="n">
+        <v>0.008818845707959079</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.862</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.344899985503044</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.01090669519148674</v>
+      </c>
+      <c r="H9" t="n">
         <v>1.085513959678162</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.1555957315262046</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.004920369058228735</v>
       </c>
     </row>
     <row r="10">
@@ -5632,16 +7444,25 @@
         <v>0.2608876661061724</v>
       </c>
       <c r="D10" t="n">
+        <v>0.008818845707959079</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.748</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.434161260363013</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.01372938454556503</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.9562746413341059</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.1598396795364733</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.005054574478066623</v>
       </c>
     </row>
     <row r="11">
@@ -5657,16 +7478,25 @@
         <v>0.217101381752159</v>
       </c>
       <c r="D11" t="n">
+        <v>0.006865348495065394</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.879</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.326127275768219</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.01031304998533412</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.877867208989524</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.1405427208631996</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.004444351064849766</v>
       </c>
     </row>
     <row r="12">
@@ -5682,16 +7512,25 @@
         <v>0.1939551005580076</v>
       </c>
       <c r="D12" t="n">
+        <v>0.00613339881570299</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.921</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.26973876250921</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.008529888627643386</v>
+      </c>
+      <c r="H12" t="n">
         <v>1.073885095306254</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.3123337521431486</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.009876860469188465</v>
       </c>
     </row>
     <row r="13">
@@ -5707,16 +7546,25 @@
         <v>0.2211480756075088</v>
       </c>
       <c r="D13" t="n">
+        <v>0.006993316190828528</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.913</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.2818350581457176</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.008912407082264592</v>
+      </c>
+      <c r="H13" t="n">
         <v>1.107162467640912</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.5395938675099335</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.01706345632790519</v>
       </c>
     </row>
     <row r="14">
@@ -5732,16 +7580,25 @@
         <v>0.189762549358246</v>
       </c>
       <c r="D14" t="n">
+        <v>0.006000818705721809</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.2374868417407584</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.007509993342207436</v>
+      </c>
+      <c r="H14" t="n">
         <v>1.135584541434971</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.3319145473215979</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.01049605958079989</v>
       </c>
     </row>
     <row r="15">
@@ -5757,16 +7614,25 @@
         <v>0.2129122791837065</v>
       </c>
       <c r="D15" t="n">
+        <v>0.006732877440381682</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.9429999999999999</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.2318426190328258</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.007331507348424335</v>
+      </c>
+      <c r="H15" t="n">
         <v>1.167499177835842</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.5961014820660959</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.01885038399930877</v>
       </c>
     </row>
     <row r="16">
@@ -5782,16 +7648,25 @@
         <v>0.1787863997548232</v>
       </c>
       <c r="D16" t="n">
+        <v>0.005653722378866108</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.975</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.15612494995996</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.004937104414532875</v>
+      </c>
+      <c r="H16" t="n">
         <v>1.231840819034535</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.3568878811060485</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.01128578573606486</v>
       </c>
     </row>
     <row r="17">
@@ -5807,16 +7682,25 @@
         <v>0.2033837678664038</v>
       </c>
       <c r="D17" t="n">
+        <v>0.006431559455648002</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.968</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.176</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.005565608681896348</v>
+      </c>
+      <c r="H17" t="n">
         <v>1.283512748303724</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.6157929175469808</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.01947308186448726</v>
       </c>
     </row>
   </sheetData>
@@ -5830,7 +7714,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5856,22 +7740,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -5888,16 +7787,25 @@
         <v>0.1298578945972516</v>
       </c>
       <c r="D2" t="n">
+        <v>0.004106467190813887</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.992</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.08908422980528033</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0.002817090697865441</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.9816961529021956</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.3362846429941072</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.01063425413997964</v>
       </c>
     </row>
     <row r="3">
@@ -5913,16 +7821,25 @@
         <v>0.1300687175396748</v>
       </c>
       <c r="D3" t="n">
+        <v>0.004113133997624648</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.996</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.063118935352238</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0.001995995991979944</v>
+      </c>
+      <c r="H3" t="n">
         <v>1.072740031082852</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.3737167607382397</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.01181796163713027</v>
       </c>
     </row>
     <row r="4">
@@ -5938,16 +7855,25 @@
         <v>0.1308174742951901</v>
       </c>
       <c r="D4" t="n">
+        <v>0.004136811765233308</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.997</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.05469003565550128</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0.001729450779872038</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.9839631988039653</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.3335083385145117</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.01054645968364314</v>
       </c>
     </row>
     <row r="5">
@@ -5963,16 +7889,25 @@
         <v>0.1258814180300916</v>
       </c>
       <c r="D5" t="n">
+        <v>0.003980719960668757</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.999</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.03160696125855822</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0.0009994998749374611</v>
+      </c>
+      <c r="H5" t="n">
         <v>1.123276453631332</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.3838776203185845</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.01213927622972059</v>
       </c>
     </row>
     <row r="6">
@@ -5988,16 +7923,25 @@
         <v>0.1259801030039403</v>
       </c>
       <c r="D6" t="n">
+        <v>0.003983840653550717</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.996</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.063118935352238</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0.001995995991979944</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.9108002797391641</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.3809504038273492</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.01204670951655349</v>
       </c>
     </row>
     <row r="7">
@@ -6013,16 +7957,25 @@
         <v>0.2205487021281925</v>
       </c>
       <c r="D7" t="n">
+        <v>0.006974362337191135</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.891</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.3116392144772541</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.00985489725973843</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.6154178782700257</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.2207617924999538</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.006981100846413313</v>
       </c>
     </row>
     <row r="8">
@@ -6038,16 +7991,25 @@
         <v>0.1448618979512035</v>
       </c>
       <c r="D8" t="n">
+        <v>0.004580935437006824</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.893</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.3091132478558627</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.009775019181566858</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.6051671423094998</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.3304732555824438</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.01045048193411477</v>
       </c>
     </row>
     <row r="9">
@@ -6063,16 +8025,25 @@
         <v>0.2183997881613287</v>
       </c>
       <c r="D9" t="n">
+        <v>0.006906407710880761</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.9320000000000001</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.251745903640953</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.007960904471226871</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.6195988013459921</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.2069115557606941</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.00654311790412727</v>
       </c>
     </row>
     <row r="10">
@@ -6088,16 +8059,25 @@
         <v>0.1451012561115546</v>
       </c>
       <c r="D10" t="n">
+        <v>0.006906407710880761</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.858</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.3490501396647765</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.01103793458940575</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.5922509177832842</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.3066199194606632</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.009696173214730831</v>
       </c>
     </row>
     <row r="11">
@@ -6113,16 +8093,25 @@
         <v>0.2013376673918894</v>
       </c>
       <c r="D11" t="n">
+        <v>0.006366856077437833</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.92</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.2712931993250107</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.008579044235810887</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.5195152225080172</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.244731718431041</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.007739096459290989</v>
       </c>
     </row>
     <row r="12">
@@ -6138,16 +8127,25 @@
         <v>0.1305479924187498</v>
       </c>
       <c r="D12" t="n">
+        <v>0.004128290000056435</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.893</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.3091132478558627</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.009775019181566858</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.5933586303111356</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.3535715078774161</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.01118091280632801</v>
       </c>
     </row>
     <row r="13">
@@ -6163,16 +8161,25 @@
         <v>0.1570012318519246</v>
       </c>
       <c r="D13" t="n">
+        <v>0.004964814881042575</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.903</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.2959577672574247</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.009359006357514668</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.6165444473870627</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.5791003518917095</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.018312761057828</v>
       </c>
     </row>
     <row r="14">
@@ -6188,16 +8195,25 @@
         <v>0.1293435662390641</v>
       </c>
       <c r="D14" t="n">
+        <v>0.004090202700043013</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.916</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.2773878151613729</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.008771772910877253</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.6274498153627001</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.3752687070186214</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.01186703848765259</v>
       </c>
     </row>
     <row r="15">
@@ -6213,16 +8229,25 @@
         <v>0.1546700554163286</v>
       </c>
       <c r="D15" t="n">
+        <v>0.004891096609400613</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.931</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.2534541378632434</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.008014923580421713</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.6506439258404576</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.6369173203786039</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.02014109413607566</v>
       </c>
     </row>
     <row r="16">
@@ -6238,16 +8263,25 @@
         <v>0.1290029884027403</v>
       </c>
       <c r="D16" t="n">
+        <v>0.004079432683209461</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.9409999999999999</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.235624701591323</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.007451107300260814</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.6805822935408798</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.403916216446188</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.01277295227847516</v>
       </c>
     </row>
     <row r="17">
@@ -6263,16 +8297,25 @@
         <v>0.1529239168103981</v>
       </c>
       <c r="D17" t="n">
+        <v>0.004835878858349695</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.951</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.2158680152315298</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.006826346021115542</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.7145659362167571</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.6615904827375656</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.02092132803741018</v>
       </c>
     </row>
   </sheetData>
@@ -6286,7 +8329,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6312,22 +8355,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -6344,16 +8402,25 @@
         <v>0.06633347452225848</v>
       </c>
       <c r="D2" t="n">
+        <v>0.002097648646030863</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.988</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.1088852607105296</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0.003443254274665175</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.5158038898291266</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.2343963023056128</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.007412261904071135</v>
       </c>
     </row>
     <row r="3">
@@ -6369,16 +8436,25 @@
         <v>0.06644766689611709</v>
       </c>
       <c r="D3" t="n">
+        <v>0.00210125972595901</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.988</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.1088852607105296</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0.003443254274665175</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.5162239723303892</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.2347984583663904</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.007424979195340117</v>
       </c>
     </row>
     <row r="4">
@@ -6394,16 +8470,25 @@
         <v>0.06826793403529618</v>
       </c>
       <c r="D4" t="n">
+        <v>0.002158821627056657</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.987</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.1132740040786058</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0.003582038525755969</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.5167433692565379</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.2366039710496586</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.007482074519574614</v>
       </c>
     </row>
     <row r="5">
@@ -6419,16 +8504,25 @@
         <v>0.0680994922327587</v>
       </c>
       <c r="D5" t="n">
+        <v>0.002153495029564629</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.989</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.1043024448419116</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0.003298332912245215</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.5309738285033864</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.2397272847147897</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.00758084236986404</v>
       </c>
     </row>
     <row r="6">
@@ -6444,16 +8538,25 @@
         <v>0.05896833033877168</v>
       </c>
       <c r="D6" t="n">
+        <v>0.00186474233687727</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.986</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.1174904251417961</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0.003715373467095872</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.4398573387635449</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.2372766588271893</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.007503346774886151</v>
       </c>
     </row>
     <row r="7">
@@ -6469,16 +8572,25 @@
         <v>8.0328713952436</v>
       </c>
       <c r="D7" t="n">
+        <v>0.2540216976018443</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.962</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.19119623427254</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.006046155803483731</v>
+      </c>
+      <c r="H7" t="n">
         <v>3.095484037011947</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>28.12558038246567</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.8894089452274123</v>
       </c>
     </row>
     <row r="8">
@@ -6494,16 +8606,25 @@
         <v>8.239230403248984</v>
       </c>
       <c r="D8" t="n">
+        <v>0.2605473424117437</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.956</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.2050950998927083</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.006485676526007137</v>
+      </c>
+      <c r="H8" t="n">
         <v>4.931258673587442</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>64.00095985843895</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.023888055896747</v>
       </c>
     </row>
     <row r="9">
@@ -6519,16 +8640,25 @@
         <v>6.49443355892456</v>
       </c>
       <c r="D9" t="n">
+        <v>0.2053720215883496</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.959</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.198290191386261</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.006270486424512856</v>
+      </c>
+      <c r="H9" t="n">
         <v>5.314422144780808</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>48.90164692666904</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.546405856216472</v>
       </c>
     </row>
     <row r="10">
@@ -6544,16 +8674,25 @@
         <v>6.767280275769477</v>
       </c>
       <c r="D10" t="n">
+        <v>0.2140001923616393</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.957</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.2028570925553257</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.006414904519944159</v>
+      </c>
+      <c r="H10" t="n">
         <v>2.156573433339136</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>27.04826739604505</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.85534131732774</v>
       </c>
     </row>
     <row r="11">
@@ -6569,16 +8708,25 @@
         <v>6.02227759438506</v>
       </c>
       <c r="D11" t="n">
+        <v>0.1904411390005644</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.2374868417407584</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.007509993342207436</v>
+      </c>
+      <c r="H11" t="n">
         <v>2.125522282235227</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>13.04129910139146</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.4124020880790416</v>
       </c>
     </row>
     <row r="12">
@@ -6594,10 +8742,10 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
         <v>1</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -6605,6 +8753,15 @@
       <c r="G12" t="n">
         <v>0</v>
       </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -6619,16 +8776,25 @@
         <v>0.01264931400069362</v>
       </c>
       <c r="D13" t="n">
+        <v>0.0004000064308084853</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.999</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.03160696125855821</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.0009994998749374609</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.0004113119191197655</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.01300031989280166</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0004111062117204927</v>
       </c>
     </row>
     <row r="14">
@@ -6644,10 +8810,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
         <v>1</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -6655,6 +8821,15 @@
       <c r="G14" t="n">
         <v>0</v>
       </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -6669,16 +8844,25 @@
         <v>0.0213780080582379</v>
       </c>
       <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.996</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.063118935352238</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.001995995991979944</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.003064099651883488</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.0414343885165849</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.001310270411687336</v>
       </c>
     </row>
     <row r="16">
@@ -6694,10 +8878,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
         <v>1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -6705,6 +8889,15 @@
       <c r="G16" t="n">
         <v>0</v>
       </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -6719,16 +8912,25 @@
         <v>0.08484681045297256</v>
       </c>
       <c r="D17" t="n">
+        <v>0.002683091732319761</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.949</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.2199977272609878</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.006956938982052379</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.4543704587441337</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.3112839278193086</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.00984366210912466</v>
       </c>
     </row>
     <row r="18">
@@ -6744,16 +8946,25 @@
         <v>0.1146992137590944</v>
       </c>
       <c r="D18" t="n">
+        <v>0.003627107613092619</v>
+      </c>
+      <c r="E18" t="n">
         <v>0.955</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>0.2073041244162788</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
+        <v>0.006555532015023648</v>
+      </c>
+      <c r="H18" t="n">
         <v>0.4712284023020044</v>
       </c>
-      <c r="G18" t="n">
+      <c r="I18" t="n">
         <v>0.5221137349430758</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.01651068600077563</v>
       </c>
     </row>
     <row r="19">
@@ -6769,16 +8980,25 @@
         <v>0.09339554675444121</v>
       </c>
       <c r="D19" t="n">
+        <v>0.002953426510607809</v>
+      </c>
+      <c r="E19" t="n">
         <v>0.953</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>0.2116388433156825</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
+        <v>0.006692607862410586</v>
+      </c>
+      <c r="H19" t="n">
         <v>0.4903028585280001</v>
       </c>
-      <c r="G19" t="n">
+      <c r="I19" t="n">
         <v>0.3386914797168098</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.01071036499997839</v>
       </c>
     </row>
     <row r="20">
@@ -6794,16 +9014,25 @@
         <v>0.1309068506028153</v>
       </c>
       <c r="D20" t="n">
+        <v>0.004139638092242824</v>
+      </c>
+      <c r="E20" t="n">
         <v>0.953</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>0.2116388433156825</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
+        <v>0.006692607862410586</v>
+      </c>
+      <c r="H20" t="n">
         <v>0.5017838678558101</v>
       </c>
-      <c r="G20" t="n">
+      <c r="I20" t="n">
         <v>0.5644112672270449</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.0178482514149941</v>
       </c>
     </row>
     <row r="21">
@@ -6819,16 +9048,25 @@
         <v>0.09467251546485625</v>
       </c>
       <c r="D21" t="n">
+        <v>0.002993807806864603</v>
+      </c>
+      <c r="E21" t="n">
         <v>0.953</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>0.2116388433156825</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
+        <v>0.006692607862410586</v>
+      </c>
+      <c r="H21" t="n">
         <v>0.4999547486067224</v>
       </c>
-      <c r="G21" t="n">
+      <c r="I21" t="n">
         <v>0.3392994649652724</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.01072959118166765</v>
       </c>
     </row>
     <row r="22">
@@ -6844,16 +9082,25 @@
         <v>0.1363859504938194</v>
       </c>
       <c r="D22" t="n">
+        <v>0.004312902444074357</v>
+      </c>
+      <c r="E22" t="n">
         <v>0.957</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>0.2028570925553257</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
+        <v>0.006414904519944159</v>
+      </c>
+      <c r="H22" t="n">
         <v>0.5219018503521562</v>
       </c>
-      <c r="G22" t="n">
+      <c r="I22" t="n">
         <v>0.5733215874420707</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.01813002048060332</v>
       </c>
     </row>
   </sheetData>
@@ -6867,7 +9114,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6893,22 +9140,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -6925,16 +9187,25 @@
         <v>0.1116101765635914</v>
       </c>
       <c r="D2" t="n">
+        <v>0.003529423679944934</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.997</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.05469003565550128</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0.001729450779872038</v>
+      </c>
+      <c r="H2" t="n">
         <v>1.186812232178684</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.1933184626456942</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.00611326655722574</v>
       </c>
     </row>
     <row r="3">
@@ -6950,16 +9221,25 @@
         <v>0.1116349785207225</v>
       </c>
       <c r="D3" t="n">
+        <v>0.003530207986694577</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.997</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.05469003565550128</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0.001729450779872038</v>
+      </c>
+      <c r="H3" t="n">
         <v>1.187217423587939</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.1934262348539126</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.006116674613690103</v>
       </c>
     </row>
     <row r="4">
@@ -6975,16 +9255,25 @@
         <v>0.1175911500174153</v>
       </c>
       <c r="D4" t="n">
+        <v>0.003718558667335809</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.998</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.04467661580737736</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0.001412798640995949</v>
+      </c>
+      <c r="H4" t="n">
         <v>1.194424947619183</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.1940855023659815</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.006137522482945005</v>
       </c>
     </row>
     <row r="5">
@@ -7000,16 +9289,25 @@
         <v>0.1148557511030693</v>
       </c>
       <c r="D5" t="n">
+        <v>0.003632057758550957</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.997</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.05469003565550128</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0.001729450779872038</v>
+      </c>
+      <c r="H5" t="n">
         <v>1.20329078246518</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.1948568814033405</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.006161915629918628</v>
       </c>
     </row>
     <row r="6">
@@ -7025,16 +9323,25 @@
         <v>0.1013135252392051</v>
       </c>
       <c r="D6" t="n">
+        <v>0.003203814975368435</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.996</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.063118935352238</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0.001995995991979944</v>
+      </c>
+      <c r="H6" t="n">
         <v>1.049654492118812</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.2058124562668894</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.00650836132637166</v>
       </c>
     </row>
     <row r="7">
@@ -7050,16 +9357,25 @@
         <v>3.93451562312308</v>
       </c>
       <c r="D7" t="n">
+        <v>0.1244203085858559</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.995</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.07053367989832944</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.002230470802319547</v>
+      </c>
+      <c r="H7" t="n">
         <v>3.177146085839673</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>44.3598228756918</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.402780768888264</v>
       </c>
     </row>
     <row r="8">
@@ -7075,16 +9391,25 @@
         <v>2.764295147099686</v>
       </c>
       <c r="D8" t="n">
+        <v>0.08741468789785201</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.995</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.07053367989832943</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.002230470802319546</v>
+      </c>
+      <c r="H8" t="n">
         <v>3.784211323961344</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>73.50880458495477</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.324552505646854</v>
       </c>
     </row>
     <row r="9">
@@ -7100,16 +9425,25 @@
         <v>0.2670694056831232</v>
       </c>
       <c r="D9" t="n">
+        <v>0.008445476153061866</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.999</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.03160696125855822</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.0009994998749374611</v>
+      </c>
+      <c r="H9" t="n">
         <v>1.757448345579871</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>8.550902530989822</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.2704032804802637</v>
       </c>
     </row>
     <row r="10">
@@ -7125,16 +9459,25 @@
         <v>1.006526765925484</v>
       </c>
       <c r="D10" t="n">
+        <v>0.03182917106247684</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.996</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.063118935352238</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.001995995991979944</v>
+      </c>
+      <c r="H10" t="n">
         <v>2.160497155942951</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>27.17758399085806</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.8594306671164025</v>
       </c>
     </row>
     <row r="11">
@@ -7150,16 +9493,25 @@
         <v>5.020828044003594</v>
       </c>
       <c r="D11" t="n">
+        <v>0.1587725235909947</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.995</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.07053367989832944</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.002230470802319547</v>
+      </c>
+      <c r="H11" t="n">
         <v>2.169757353004881</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>1.471803294768635</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.04654250679209071</v>
       </c>
     </row>
     <row r="12">
@@ -7175,16 +9527,25 @@
         <v>0.05795831033591477</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>0.001832802699963694</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.008996127090771914</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.09004049223110575</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.002847330370929902</v>
       </c>
     </row>
     <row r="13">
@@ -7200,16 +9561,25 @@
         <v>0.06897550563394689</v>
       </c>
       <c r="D13" t="n">
+        <v>0.002181197005650484</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.015</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.1215524578114322</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.003843826218756514</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.03628334330586309</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.1660201527277777</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.005250018201087937</v>
       </c>
     </row>
     <row r="14">
@@ -7225,16 +9595,25 @@
         <v>0.04529815160098953</v>
       </c>
       <c r="D14" t="n">
+        <v>0.001432453328547297</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.001</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.03160696125855822</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.0009994998749374611</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.007951372996734863</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.08376753909968672</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.002648962175422205</v>
       </c>
     </row>
     <row r="15">
@@ -7250,16 +9629,25 @@
         <v>0.0633573015682547</v>
       </c>
       <c r="D15" t="n">
+        <v>0.001432453328547297</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.034</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.181229136730273</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.005730968504537431</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.05319575614458729</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.1962580299853699</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.006206223838513911</v>
       </c>
     </row>
     <row r="16">
@@ -7275,16 +9663,25 @@
         <v>0.0563458696895672</v>
       </c>
       <c r="D16" t="n">
+        <v>0.00178181284962077</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.002</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.04467661580737736</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.001412798640995949</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.02103374470538426</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.1201245053167708</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.00379867039602002</v>
       </c>
     </row>
     <row r="17">
@@ -7300,16 +9697,25 @@
         <v>0.1635797333503675</v>
       </c>
       <c r="D17" t="n">
+        <v>0.005172845364301676</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.907</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.2904324362050492</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.009184280047995052</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.940753531765994</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.2680688372895512</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.008477080955480599</v>
       </c>
     </row>
     <row r="18">
@@ -7325,16 +9731,25 @@
         <v>0.188114603586981</v>
       </c>
       <c r="D18" t="n">
+        <v>0.005948706084745404</v>
+      </c>
+      <c r="E18" t="n">
         <v>0.908</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>0.289025950392002</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
+        <v>0.009139803061335623</v>
+      </c>
+      <c r="H18" t="n">
         <v>0.965604447178443</v>
       </c>
-      <c r="G18" t="n">
+      <c r="I18" t="n">
         <v>0.482232827444404</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.01524954097227272</v>
       </c>
     </row>
     <row r="19">
@@ -7350,16 +9765,25 @@
         <v>0.1524163947369333</v>
       </c>
       <c r="D19" t="n">
+        <v>0.004819829601200094</v>
+      </c>
+      <c r="E19" t="n">
         <v>0.958</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>0.2005891323078097</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
+        <v>0.006343185319695461</v>
+      </c>
+      <c r="H19" t="n">
         <v>1.014775103756903</v>
       </c>
-      <c r="G19" t="n">
+      <c r="I19" t="n">
         <v>0.2926425289380422</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.009254169316759493</v>
       </c>
     </row>
     <row r="20">
@@ -7375,16 +9799,25 @@
         <v>0.1849549409742823</v>
       </c>
       <c r="D20" t="n">
+        <v>0.005848788779807341</v>
+      </c>
+      <c r="E20" t="n">
         <v>0.951</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>0.2158680152315298</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
+        <v>0.006826346021115542</v>
+      </c>
+      <c r="H20" t="n">
         <v>1.02770233065409</v>
       </c>
-      <c r="G20" t="n">
+      <c r="I20" t="n">
         <v>0.5224984423851331</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.01652285151827282</v>
       </c>
     </row>
     <row r="21">
@@ -7400,16 +9833,25 @@
         <v>0.1513218289909097</v>
       </c>
       <c r="D21" t="n">
+        <v>0.004785216393137735</v>
+      </c>
+      <c r="E21" t="n">
         <v>0.962</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>0.19119623427254</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
+        <v>0.006046155803483731</v>
+      </c>
+      <c r="H21" t="n">
         <v>1.035903740986049</v>
       </c>
-      <c r="G21" t="n">
+      <c r="I21" t="n">
         <v>0.293916060676718</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.009294441926426792</v>
       </c>
     </row>
     <row r="22">
@@ -7425,16 +9867,25 @@
         <v>0.1794736040174759</v>
       </c>
       <c r="D22" t="n">
+        <v>0.005675453685743701</v>
+      </c>
+      <c r="E22" t="n">
         <v>0.972</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>0.1649727250184102</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
+        <v>0.005216895628628198</v>
+      </c>
+      <c r="H22" t="n">
         <v>1.070026552184761</v>
       </c>
-      <c r="G22" t="n">
+      <c r="I22" t="n">
         <v>0.5304499633167626</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.01677430068833735</v>
       </c>
     </row>
   </sheetData>
@@ -7448,7 +9899,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7474,22 +9925,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -7506,16 +9972,25 @@
         <v>0.07102896307487395</v>
       </c>
       <c r="D2" t="n">
+        <v>0.002246133031565986</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.995</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.07053367989832943</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0.002230470802319546</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.6261839136004762</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.2269076079774241</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.007175448596292527</v>
       </c>
     </row>
     <row r="3">
@@ -7531,16 +10006,25 @@
         <v>0.07111705691709518</v>
       </c>
       <c r="D3" t="n">
+        <v>0.002248918803458532</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.995</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.07053367989832943</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0.002230470802319546</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.6267339633675295</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.2271673764705725</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.007183663197319514</v>
       </c>
     </row>
     <row r="4">
@@ -7556,16 +10040,25 @@
         <v>0.07183978304168727</v>
       </c>
       <c r="D4" t="n">
+        <v>0.002271773410240709</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.996</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.063118935352238</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0.001995995991979944</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.6282099958617564</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.2305539243811167</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.007290755245345551</v>
       </c>
     </row>
     <row r="5">
@@ -7581,16 +10074,25 @@
         <v>0.07156439804890259</v>
       </c>
       <c r="D5" t="n">
+        <v>0.002263064972134422</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.997</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.05469003565550128</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0.001729450779872038</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.641105225800857</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.230258216189835</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.007281404131273363</v>
       </c>
     </row>
     <row r="6">
@@ -7606,16 +10108,25 @@
         <v>0.06540636574426816</v>
       </c>
       <c r="D6" t="n">
+        <v>0.002068330892259016</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.994</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.07722693830523131</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0.002442130217658346</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.5382916636952203</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.2327501145893214</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.007360204877674415</v>
       </c>
     </row>
     <row r="7">
@@ -7631,16 +10142,25 @@
         <v>9.504537394066052</v>
       </c>
       <c r="D7" t="n">
+        <v>0.3005598627149006</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.974</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.1591351626762608</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.005032295698784005</v>
+      </c>
+      <c r="H7" t="n">
         <v>2.989750252505189</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>29.84869662493544</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.9438986652217664</v>
       </c>
     </row>
     <row r="8">
@@ -7656,16 +10176,25 @@
         <v>0.2344418485204467</v>
       </c>
       <c r="D8" t="n">
+        <v>0.007413702201847878</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.969</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.1733176274935703</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.005480784615363023</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.9660752267391455</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>3.067450862785088</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.09700131337049506</v>
       </c>
     </row>
     <row r="9">
@@ -7681,16 +10210,25 @@
         <v>1.922844584941917</v>
       </c>
       <c r="D9" t="n">
+        <v>0.06080568474937564</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.974</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.1591351626762608</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.005032295698784005</v>
+      </c>
+      <c r="H9" t="n">
         <v>7.328713923610633</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>157.0109449764471</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4.965122037009452</v>
       </c>
     </row>
     <row r="10">
@@ -7706,16 +10244,25 @@
         <v>7.806175189513213</v>
       </c>
       <c r="D10" t="n">
+        <v>0.246852934131583</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.969</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.1733176274935703</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.005480784615363023</v>
+      </c>
+      <c r="H10" t="n">
         <v>6.314370472740483</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>133.557078086879</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4.223445643915014</v>
       </c>
     </row>
     <row r="11">
@@ -7731,16 +10278,25 @@
         <v>0.6292836454665807</v>
       </c>
       <c r="D11" t="n">
+        <v>0.01989969613968287</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.963</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.1887617546008724</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.005969170796685247</v>
+      </c>
+      <c r="H11" t="n">
         <v>1.360038005065166</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.9803611757546584</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.03100174244985363</v>
       </c>
     </row>
     <row r="12">
@@ -7756,16 +10312,25 @@
         <v>0.01136207396033397</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>0.0003593003265794497</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.0004405417188277407</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.01392418503976704</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.0004403213928730608</v>
       </c>
     </row>
     <row r="13">
@@ -7781,16 +10346,25 @@
         <v>0.02685241968327795</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>0.0008491480688589554</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.003835753639480567</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.04348690477837973</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.001375176674905398</v>
       </c>
     </row>
     <row r="14">
@@ -7806,16 +10380,25 @@
         <v>0.01503259760978735</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>0.0004753724759573112</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.0004801692863798394</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.01517669203215713</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.0004799291416854594</v>
       </c>
     </row>
     <row r="15">
@@ -7831,16 +10414,25 @@
         <v>0.02890697725391538</v>
       </c>
       <c r="D15" t="n">
+        <v>0.0004753724759573112</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.001</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.03160696125855823</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.0009994998749374613</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.004700377076255304</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.04914268474990597</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.00155402814145325</v>
       </c>
     </row>
     <row r="16">
@@ -7856,16 +10448,25 @@
         <v>0.01000854819032224</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>0.0003164980835297468</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.0003697592580788929</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.0116869665450928</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.0003695743322068217</v>
       </c>
     </row>
     <row r="17">
@@ -7881,16 +10482,25 @@
         <v>0.09295451840734055</v>
       </c>
       <c r="D17" t="n">
+        <v>0.002939479969712434</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.9389999999999999</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.239330315672712</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.007568289106528635</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.5196672474331205</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.3047899704250689</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.009638305145185764</v>
       </c>
     </row>
     <row r="18">
@@ -7906,16 +10516,25 @@
         <v>0.1200102239080807</v>
       </c>
       <c r="D18" t="n">
+        <v>0.003795056500563288</v>
+      </c>
+      <c r="E18" t="n">
         <v>0.9429999999999999</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>0.2318426190328258</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
+        <v>0.007331507348424335</v>
+      </c>
+      <c r="H18" t="n">
         <v>0.5377892324285442</v>
       </c>
-      <c r="G18" t="n">
+      <c r="I18" t="n">
         <v>0.5163641737307205</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.01632886891099962</v>
       </c>
     </row>
     <row r="19">
@@ -7931,16 +10550,25 @@
         <v>0.09869423528640014</v>
       </c>
       <c r="D19" t="n">
+        <v>0.00312098575433585</v>
+      </c>
+      <c r="E19" t="n">
         <v>0.95</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>0.2179449471770337</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
+        <v>0.006892024376045113</v>
+      </c>
+      <c r="H19" t="n">
         <v>0.5607020656064948</v>
       </c>
-      <c r="G19" t="n">
+      <c r="I19" t="n">
         <v>0.3317287888524997</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.01049018538222973</v>
       </c>
     </row>
     <row r="20">
@@ -7956,16 +10584,25 @@
         <v>0.1330991297037722</v>
       </c>
       <c r="D20" t="n">
+        <v>0.004208964044500925</v>
+      </c>
+      <c r="E20" t="n">
         <v>0.954</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>0.2094850830011531</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
+        <v>0.006624499981130651</v>
+      </c>
+      <c r="H20" t="n">
         <v>0.5725879954219557</v>
       </c>
-      <c r="G20" t="n">
+      <c r="I20" t="n">
         <v>0.5583531633247665</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.01765667734866256</v>
       </c>
     </row>
     <row r="21">
@@ -7981,16 +10618,25 @@
         <v>0.09945483408039892</v>
       </c>
       <c r="D21" t="n">
+        <v>0.003145038000081983</v>
+      </c>
+      <c r="E21" t="n">
         <v>0.955</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>0.2073041244162788</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
+        <v>0.006555532015023648</v>
+      </c>
+      <c r="H21" t="n">
         <v>0.5719024428173117</v>
       </c>
-      <c r="G21" t="n">
+      <c r="I21" t="n">
         <v>0.332286283032564</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.01050781489614264</v>
       </c>
     </row>
     <row r="22">
@@ -8006,16 +10652,25 @@
         <v>0.137118847221381</v>
       </c>
       <c r="D22" t="n">
+        <v>0.004336078673562144</v>
+      </c>
+      <c r="E22" t="n">
         <v>0.963</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>0.1887617546008724</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
+        <v>0.005969170796685247</v>
+      </c>
+      <c r="H22" t="n">
         <v>0.5956882163452953</v>
       </c>
-      <c r="G22" t="n">
+      <c r="I22" t="n">
         <v>0.5670506685914081</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.01793171661470153</v>
       </c>
     </row>
   </sheetData>
